--- a/helper.xlsx
+++ b/helper.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet5_2" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="26">
   <si>
     <t xml:space="preserve">soil</t>
   </si>
@@ -64,16 +66,43 @@
     <t xml:space="preserve">║</t>
   </si>
   <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">╝</t>
   </si>
   <si>
     <t xml:space="preserve">╚</t>
   </si>
   <si>
-    <t xml:space="preserve">╝</t>
+    <t xml:space="preserve">I</t>
   </si>
   <si>
-    <t xml:space="preserve">I</t>
+    <t xml:space="preserve">Always cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never cut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">═, ╝, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,1,4,1,2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..##...</t>
   </si>
 </sst>
 </file>
@@ -83,11 +112,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -108,6 +138,35 @@
       <sz val="10"/>
       <name val="Liberation Mono;Courier New;DejaVu Sans Mono"/>
       <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00CC00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +211,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -165,7 +224,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,6 +253,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00CC00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -189,13 +324,13 @@
   <dimension ref="A1:J54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+      <selection pane="topLeft" activeCell="B55" activeCellId="1" sqref="X20:X21 B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,15 +1156,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="X20:X21 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1044,12 +1179,10 @@
         <f aca="false">13+(A1*13)</f>
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="n">
+      <c r="D1" s="0" t="n">
         <f aca="false">B1=C1</f>
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1063,12 +1196,10 @@
         <f aca="false">13+(A2*13)</f>
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="0" t="n">
         <f aca="false">B2=C2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -1083,12 +1214,10 @@
         <f aca="false">13+(A3*13)</f>
         <v>39</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="0" t="n">
         <f aca="false">B3=C3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1103,12 +1232,10 @@
         <f aca="false">13+(A4*13)</f>
         <v>52</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="0" t="n">
         <f aca="false">B4=C4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1123,12 +1250,10 @@
         <f aca="false">13+(A5*13)</f>
         <v>65</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="0" t="n">
         <f aca="false">B5=C5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1143,12 +1268,10 @@
         <f aca="false">13+(A6*13)</f>
         <v>78</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="0" t="n">
         <f aca="false">B6=C6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1163,12 +1286,10 @@
         <f aca="false">13+(A7*13)</f>
         <v>91</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="0" t="n">
         <f aca="false">B7=C7</f>
         <v>1</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -1183,12 +1304,10 @@
         <f aca="false">13+(A8*13)</f>
         <v>104</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="0" t="n">
         <f aca="false">B8=C8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -1203,12 +1322,10 @@
         <f aca="false">13+(A9*13)</f>
         <v>117</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="0" t="n">
         <f aca="false">B9=C9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -1223,12 +1340,10 @@
         <f aca="false">13+(A10*13)</f>
         <v>130</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="0" t="n">
         <f aca="false">B10=C10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -1243,12 +1358,10 @@
         <f aca="false">13+(A11*13)</f>
         <v>143</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="0" t="n">
         <f aca="false">B11=C11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -1263,12 +1376,10 @@
         <f aca="false">13+(A12*13)</f>
         <v>156</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="0" t="n">
         <f aca="false">B12=C12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -1283,12 +1394,10 @@
         <f aca="false">13+(A13*13)</f>
         <v>169</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="0" t="n">
         <f aca="false">B13=C13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -1303,12 +1412,10 @@
         <f aca="false">13+(A14*13)</f>
         <v>182</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="0" t="n">
         <f aca="false">B14=C14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -1323,12 +1430,10 @@
         <f aca="false">13+(A15*13)</f>
         <v>195</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="0" t="n">
         <f aca="false">B15=C15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -1343,12 +1448,10 @@
         <f aca="false">13+(A16*13)</f>
         <v>208</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="0" t="n">
         <f aca="false">B16=C16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -1363,12 +1466,10 @@
         <f aca="false">13+(A17*13)</f>
         <v>221</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="0" t="n">
         <f aca="false">B17=C17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -1383,12 +1484,10 @@
         <f aca="false">13+(A18*13)</f>
         <v>234</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="0" t="n">
         <f aca="false">B18=C18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -1403,12 +1502,10 @@
         <f aca="false">13+(A19*13)</f>
         <v>247</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c r="D19" s="0" t="n">
         <f aca="false">B19=C19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -1423,12 +1520,10 @@
         <f aca="false">13+(A20*13)</f>
         <v>260</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="0" t="n">
         <f aca="false">B20=C20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -1443,12 +1538,10 @@
         <f aca="false">13+(A21*13)</f>
         <v>273</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="0" t="n">
         <f aca="false">B21=C21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -1463,12 +1556,10 @@
         <f aca="false">13+(A22*13)</f>
         <v>286</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c r="D22" s="0" t="n">
         <f aca="false">B22=C22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -1483,12 +1574,10 @@
         <f aca="false">13+(A23*13)</f>
         <v>299</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="0" t="n">
         <f aca="false">B23=C23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -1503,12 +1592,10 @@
         <f aca="false">13+(A24*13)</f>
         <v>312</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="0" t="n">
         <f aca="false">B24=C24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -1523,12 +1610,10 @@
         <f aca="false">13+(A25*13)</f>
         <v>325</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c r="D25" s="0" t="n">
         <f aca="false">B25=C25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -1543,12 +1628,10 @@
         <f aca="false">13+(A26*13)</f>
         <v>338</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c r="D26" s="0" t="n">
         <f aca="false">B26=C26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -1563,12 +1646,10 @@
         <f aca="false">13+(A27*13)</f>
         <v>351</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c r="D27" s="0" t="n">
         <f aca="false">B27=C27</f>
         <v>0</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -1583,12 +1664,10 @@
         <f aca="false">13+(A28*13)</f>
         <v>364</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="0" t="n">
         <f aca="false">B28=C28</f>
         <v>0</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -1603,12 +1682,10 @@
         <f aca="false">13+(A29*13)</f>
         <v>377</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c r="D29" s="0" t="n">
         <f aca="false">B29=C29</f>
         <v>0</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -1623,12 +1700,10 @@
         <f aca="false">13+(A30*13)</f>
         <v>390</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c r="D30" s="0" t="n">
         <f aca="false">B30=C30</f>
         <v>0</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -1643,12 +1718,10 @@
         <f aca="false">13+(A31*13)</f>
         <v>403</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c r="D31" s="0" t="n">
         <f aca="false">B31=C31</f>
         <v>0</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -1663,12 +1736,10 @@
         <f aca="false">13+(A32*13)</f>
         <v>416</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c r="D32" s="0" t="n">
         <f aca="false">B32=C32</f>
         <v>0</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -1683,12 +1754,10 @@
         <f aca="false">13+(A33*13)</f>
         <v>429</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c r="D33" s="0" t="n">
         <f aca="false">B33=C33</f>
         <v>0</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -1703,12 +1772,10 @@
         <f aca="false">13+(A34*13)</f>
         <v>442</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="0" t="n">
         <f aca="false">B34=C34</f>
         <v>0</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -1723,12 +1790,10 @@
         <f aca="false">13+(A35*13)</f>
         <v>455</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="0" t="n">
         <f aca="false">B35=C35</f>
         <v>0</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -1743,12 +1808,10 @@
         <f aca="false">13+(A36*13)</f>
         <v>468</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c r="D36" s="0" t="n">
         <f aca="false">B36=C36</f>
         <v>0</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -1763,12 +1826,10 @@
         <f aca="false">13+(A37*13)</f>
         <v>481</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c r="D37" s="0" t="n">
         <f aca="false">B37=C37</f>
         <v>0</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -1783,12 +1844,10 @@
         <f aca="false">13+(A38*13)</f>
         <v>494</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c r="D38" s="0" t="n">
         <f aca="false">B38=C38</f>
         <v>0</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -1803,12 +1862,10 @@
         <f aca="false">13+(A39*13)</f>
         <v>507</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c r="D39" s="0" t="n">
         <f aca="false">B39=C39</f>
         <v>0</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -1823,12 +1880,10 @@
         <f aca="false">13+(A40*13)</f>
         <v>520</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c r="D40" s="0" t="n">
         <f aca="false">B40=C40</f>
         <v>0</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -1843,12 +1898,10 @@
         <f aca="false">13+(A41*13)</f>
         <v>533</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c r="D41" s="0" t="n">
         <f aca="false">B41=C41</f>
         <v>0</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -1863,12 +1916,10 @@
         <f aca="false">13+(A42*13)</f>
         <v>546</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c r="D42" s="0" t="n">
         <f aca="false">B42=C42</f>
         <v>0</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -1883,12 +1934,10 @@
         <f aca="false">13+(A43*13)</f>
         <v>559</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c r="D43" s="0" t="n">
         <f aca="false">B43=C43</f>
         <v>0</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -1903,12 +1952,10 @@
         <f aca="false">13+(A44*13)</f>
         <v>572</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c r="D44" s="0" t="n">
         <f aca="false">B44=C44</f>
         <v>0</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -1923,12 +1970,10 @@
         <f aca="false">13+(A45*13)</f>
         <v>585</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c r="D45" s="0" t="n">
         <f aca="false">B45=C45</f>
         <v>0</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -1943,12 +1988,10 @@
         <f aca="false">13+(A46*13)</f>
         <v>598</v>
       </c>
-      <c r="D46" s="3" t="n">
+      <c r="D46" s="0" t="n">
         <f aca="false">B46=C46</f>
         <v>0</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -1963,7 +2006,7 @@
         <f aca="false">13+(A47*13)</f>
         <v>611</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c r="D47" s="0" t="n">
         <f aca="false">B47=C47</f>
         <v>0</v>
       </c>
@@ -1981,7 +2024,7 @@
         <f aca="false">13+(A48*13)</f>
         <v>624</v>
       </c>
-      <c r="D48" s="3" t="n">
+      <c r="D48" s="0" t="n">
         <f aca="false">B48=C48</f>
         <v>0</v>
       </c>
@@ -1999,7 +2042,7 @@
         <f aca="false">13+(A49*13)</f>
         <v>637</v>
       </c>
-      <c r="D49" s="3" t="n">
+      <c r="D49" s="0" t="n">
         <f aca="false">B49=C49</f>
         <v>0</v>
       </c>
@@ -2017,7 +2060,7 @@
         <f aca="false">13+(A50*13)</f>
         <v>650</v>
       </c>
-      <c r="D50" s="3" t="n">
+      <c r="D50" s="0" t="n">
         <f aca="false">B50=C50</f>
         <v>0</v>
       </c>
@@ -2035,7 +2078,7 @@
         <f aca="false">13+(A51*13)</f>
         <v>663</v>
       </c>
-      <c r="D51" s="3" t="n">
+      <c r="D51" s="0" t="n">
         <f aca="false">B51=C51</f>
         <v>0</v>
       </c>
@@ -2053,7 +2096,7 @@
         <f aca="false">13+(A52*13)</f>
         <v>676</v>
       </c>
-      <c r="D52" s="3" t="n">
+      <c r="D52" s="0" t="n">
         <f aca="false">B52=C52</f>
         <v>0</v>
       </c>
@@ -2071,7 +2114,7 @@
         <f aca="false">13+(A53*13)</f>
         <v>689</v>
       </c>
-      <c r="D53" s="3" t="n">
+      <c r="D53" s="0" t="n">
         <f aca="false">B53=C53</f>
         <v>0</v>
       </c>
@@ -2089,7 +2132,7 @@
         <f aca="false">13+(A54*13)</f>
         <v>702</v>
       </c>
-      <c r="D54" s="3" t="n">
+      <c r="D54" s="0" t="n">
         <f aca="false">B54=C54</f>
         <v>0</v>
       </c>
@@ -2107,7 +2150,7 @@
         <f aca="false">13+(A55*13)</f>
         <v>715</v>
       </c>
-      <c r="D55" s="3" t="n">
+      <c r="D55" s="0" t="n">
         <f aca="false">B55=C55</f>
         <v>0</v>
       </c>
@@ -2125,7 +2168,7 @@
         <f aca="false">13+(A56*13)</f>
         <v>728</v>
       </c>
-      <c r="D56" s="3" t="n">
+      <c r="D56" s="0" t="n">
         <f aca="false">B56=C56</f>
         <v>0</v>
       </c>
@@ -2143,7 +2186,7 @@
         <f aca="false">13+(A57*13)</f>
         <v>741</v>
       </c>
-      <c r="D57" s="3" t="n">
+      <c r="D57" s="0" t="n">
         <f aca="false">B57=C57</f>
         <v>0</v>
       </c>
@@ -2161,7 +2204,7 @@
         <f aca="false">13+(A58*13)</f>
         <v>754</v>
       </c>
-      <c r="D58" s="3" t="n">
+      <c r="D58" s="0" t="n">
         <f aca="false">B58=C58</f>
         <v>0</v>
       </c>
@@ -2179,7 +2222,7 @@
         <f aca="false">13+(A59*13)</f>
         <v>767</v>
       </c>
-      <c r="D59" s="3" t="n">
+      <c r="D59" s="0" t="n">
         <f aca="false">B59=C59</f>
         <v>0</v>
       </c>
@@ -2197,7 +2240,7 @@
         <f aca="false">13+(A60*13)</f>
         <v>780</v>
       </c>
-      <c r="D60" s="3" t="n">
+      <c r="D60" s="0" t="n">
         <f aca="false">B60=C60</f>
         <v>0</v>
       </c>
@@ -2215,7 +2258,7 @@
         <f aca="false">13+(A61*13)</f>
         <v>793</v>
       </c>
-      <c r="D61" s="3" t="n">
+      <c r="D61" s="0" t="n">
         <f aca="false">B61=C61</f>
         <v>0</v>
       </c>
@@ -2233,7 +2276,7 @@
         <f aca="false">13+(A62*13)</f>
         <v>806</v>
       </c>
-      <c r="D62" s="3" t="n">
+      <c r="D62" s="0" t="n">
         <f aca="false">B62=C62</f>
         <v>0</v>
       </c>
@@ -2251,7 +2294,7 @@
         <f aca="false">13+(A63*13)</f>
         <v>819</v>
       </c>
-      <c r="D63" s="3" t="n">
+      <c r="D63" s="0" t="n">
         <f aca="false">B63=C63</f>
         <v>0</v>
       </c>
@@ -2269,7 +2312,7 @@
         <f aca="false">13+(A64*13)</f>
         <v>832</v>
       </c>
-      <c r="D64" s="3" t="n">
+      <c r="D64" s="0" t="n">
         <f aca="false">B64=C64</f>
         <v>0</v>
       </c>
@@ -2287,7 +2330,7 @@
         <f aca="false">13+(A65*13)</f>
         <v>845</v>
       </c>
-      <c r="D65" s="3" t="n">
+      <c r="D65" s="0" t="n">
         <f aca="false">B65=C65</f>
         <v>0</v>
       </c>
@@ -2305,7 +2348,7 @@
         <f aca="false">13+(A66*13)</f>
         <v>858</v>
       </c>
-      <c r="D66" s="3" t="n">
+      <c r="D66" s="0" t="n">
         <f aca="false">B66=C66</f>
         <v>0</v>
       </c>
@@ -2323,7 +2366,7 @@
         <f aca="false">13+(A67*13)</f>
         <v>871</v>
       </c>
-      <c r="D67" s="3" t="n">
+      <c r="D67" s="0" t="n">
         <f aca="false">B67=C67</f>
         <v>0</v>
       </c>
@@ -2341,7 +2384,7 @@
         <f aca="false">13+(A68*13)</f>
         <v>884</v>
       </c>
-      <c r="D68" s="3" t="n">
+      <c r="D68" s="0" t="n">
         <f aca="false">B68=C68</f>
         <v>0</v>
       </c>
@@ -2359,7 +2402,7 @@
         <f aca="false">13+(A69*13)</f>
         <v>897</v>
       </c>
-      <c r="D69" s="3" t="n">
+      <c r="D69" s="0" t="n">
         <f aca="false">B69=C69</f>
         <v>0</v>
       </c>
@@ -2377,7 +2420,7 @@
         <f aca="false">13+(A70*13)</f>
         <v>910</v>
       </c>
-      <c r="D70" s="3" t="n">
+      <c r="D70" s="0" t="n">
         <f aca="false">B70=C70</f>
         <v>0</v>
       </c>
@@ -2395,7 +2438,7 @@
         <f aca="false">13+(A71*13)</f>
         <v>923</v>
       </c>
-      <c r="D71" s="3" t="n">
+      <c r="D71" s="0" t="n">
         <f aca="false">B71=C71</f>
         <v>0</v>
       </c>
@@ -2413,7 +2456,7 @@
         <f aca="false">13+(A72*13)</f>
         <v>936</v>
       </c>
-      <c r="D72" s="3" t="n">
+      <c r="D72" s="0" t="n">
         <f aca="false">B72=C72</f>
         <v>0</v>
       </c>
@@ -2431,7 +2474,7 @@
         <f aca="false">13+(A73*13)</f>
         <v>949</v>
       </c>
-      <c r="D73" s="3" t="n">
+      <c r="D73" s="0" t="n">
         <f aca="false">B73=C73</f>
         <v>0</v>
       </c>
@@ -2449,7 +2492,7 @@
         <f aca="false">13+(A74*13)</f>
         <v>962</v>
       </c>
-      <c r="D74" s="3" t="n">
+      <c r="D74" s="0" t="n">
         <f aca="false">B74=C74</f>
         <v>0</v>
       </c>
@@ -2467,7 +2510,7 @@
         <f aca="false">13+(A75*13)</f>
         <v>975</v>
       </c>
-      <c r="D75" s="3" t="n">
+      <c r="D75" s="0" t="n">
         <f aca="false">B75=C75</f>
         <v>0</v>
       </c>
@@ -2485,7 +2528,7 @@
         <f aca="false">13+(A76*13)</f>
         <v>988</v>
       </c>
-      <c r="D76" s="3" t="n">
+      <c r="D76" s="0" t="n">
         <f aca="false">B76=C76</f>
         <v>0</v>
       </c>
@@ -2503,7 +2546,7 @@
         <f aca="false">13+(A77*13)</f>
         <v>1001</v>
       </c>
-      <c r="D77" s="3" t="n">
+      <c r="D77" s="0" t="n">
         <f aca="false">B77=C77</f>
         <v>0</v>
       </c>
@@ -2521,7 +2564,7 @@
         <f aca="false">13+(A78*13)</f>
         <v>1014</v>
       </c>
-      <c r="D78" s="3" t="n">
+      <c r="D78" s="0" t="n">
         <f aca="false">B78=C78</f>
         <v>0</v>
       </c>
@@ -2539,7 +2582,7 @@
         <f aca="false">13+(A79*13)</f>
         <v>1027</v>
       </c>
-      <c r="D79" s="3" t="n">
+      <c r="D79" s="0" t="n">
         <f aca="false">B79=C79</f>
         <v>0</v>
       </c>
@@ -2557,7 +2600,7 @@
         <f aca="false">13+(A80*13)</f>
         <v>1040</v>
       </c>
-      <c r="D80" s="3" t="n">
+      <c r="D80" s="0" t="n">
         <f aca="false">B80=C80</f>
         <v>0</v>
       </c>
@@ -2575,7 +2618,7 @@
         <f aca="false">13+(A81*13)</f>
         <v>1053</v>
       </c>
-      <c r="D81" s="3" t="n">
+      <c r="D81" s="0" t="n">
         <f aca="false">B81=C81</f>
         <v>0</v>
       </c>
@@ -2593,7 +2636,7 @@
         <f aca="false">13+(A82*13)</f>
         <v>1066</v>
       </c>
-      <c r="D82" s="3" t="n">
+      <c r="D82" s="0" t="n">
         <f aca="false">B82=C82</f>
         <v>0</v>
       </c>
@@ -2611,7 +2654,7 @@
         <f aca="false">13+(A83*13)</f>
         <v>1079</v>
       </c>
-      <c r="D83" s="3" t="n">
+      <c r="D83" s="0" t="n">
         <f aca="false">B83=C83</f>
         <v>0</v>
       </c>
@@ -2629,7 +2672,7 @@
         <f aca="false">13+(A84*13)</f>
         <v>1092</v>
       </c>
-      <c r="D84" s="3" t="n">
+      <c r="D84" s="0" t="n">
         <f aca="false">B84=C84</f>
         <v>0</v>
       </c>
@@ -2647,7 +2690,7 @@
         <f aca="false">13+(A85*13)</f>
         <v>1105</v>
       </c>
-      <c r="D85" s="3" t="n">
+      <c r="D85" s="0" t="n">
         <f aca="false">B85=C85</f>
         <v>0</v>
       </c>
@@ -2665,7 +2708,7 @@
         <f aca="false">13+(A86*13)</f>
         <v>1118</v>
       </c>
-      <c r="D86" s="3" t="n">
+      <c r="D86" s="0" t="n">
         <f aca="false">B86=C86</f>
         <v>0</v>
       </c>
@@ -2683,7 +2726,7 @@
         <f aca="false">13+(A87*13)</f>
         <v>1131</v>
       </c>
-      <c r="D87" s="3" t="n">
+      <c r="D87" s="0" t="n">
         <f aca="false">B87=C87</f>
         <v>0</v>
       </c>
@@ -2701,7 +2744,7 @@
         <f aca="false">13+(A88*13)</f>
         <v>1144</v>
       </c>
-      <c r="D88" s="3" t="n">
+      <c r="D88" s="0" t="n">
         <f aca="false">B88=C88</f>
         <v>0</v>
       </c>
@@ -2719,7 +2762,7 @@
         <f aca="false">13+(A89*13)</f>
         <v>1157</v>
       </c>
-      <c r="D89" s="3" t="n">
+      <c r="D89" s="0" t="n">
         <f aca="false">B89=C89</f>
         <v>0</v>
       </c>
@@ -2737,7 +2780,7 @@
         <f aca="false">13+(A90*13)</f>
         <v>1170</v>
       </c>
-      <c r="D90" s="3" t="n">
+      <c r="D90" s="0" t="n">
         <f aca="false">B90=C90</f>
         <v>0</v>
       </c>
@@ -2755,7 +2798,7 @@
         <f aca="false">13+(A91*13)</f>
         <v>1183</v>
       </c>
-      <c r="D91" s="3" t="n">
+      <c r="D91" s="0" t="n">
         <f aca="false">B91=C91</f>
         <v>0</v>
       </c>
@@ -2773,7 +2816,7 @@
         <f aca="false">13+(A92*13)</f>
         <v>1196</v>
       </c>
-      <c r="D92" s="3" t="n">
+      <c r="D92" s="0" t="n">
         <f aca="false">B92=C92</f>
         <v>0</v>
       </c>
@@ -2791,7 +2834,7 @@
         <f aca="false">13+(A93*13)</f>
         <v>1209</v>
       </c>
-      <c r="D93" s="3" t="n">
+      <c r="D93" s="0" t="n">
         <f aca="false">B93=C93</f>
         <v>0</v>
       </c>
@@ -2809,7 +2852,7 @@
         <f aca="false">13+(A94*13)</f>
         <v>1222</v>
       </c>
-      <c r="D94" s="3" t="n">
+      <c r="D94" s="0" t="n">
         <f aca="false">B94=C94</f>
         <v>0</v>
       </c>
@@ -2827,7 +2870,7 @@
         <f aca="false">13+(A95*13)</f>
         <v>1235</v>
       </c>
-      <c r="D95" s="3" t="n">
+      <c r="D95" s="0" t="n">
         <f aca="false">B95=C95</f>
         <v>0</v>
       </c>
@@ -2845,7 +2888,7 @@
         <f aca="false">13+(A96*13)</f>
         <v>1248</v>
       </c>
-      <c r="D96" s="3" t="n">
+      <c r="D96" s="0" t="n">
         <f aca="false">B96=C96</f>
         <v>0</v>
       </c>
@@ -2863,7 +2906,7 @@
         <f aca="false">13+(A97*13)</f>
         <v>1261</v>
       </c>
-      <c r="D97" s="3" t="n">
+      <c r="D97" s="0" t="n">
         <f aca="false">B97=C97</f>
         <v>0</v>
       </c>
@@ -2881,7 +2924,7 @@
         <f aca="false">13+(A98*13)</f>
         <v>1274</v>
       </c>
-      <c r="D98" s="3" t="n">
+      <c r="D98" s="0" t="n">
         <f aca="false">B98=C98</f>
         <v>0</v>
       </c>
@@ -2899,7 +2942,7 @@
         <f aca="false">13+(A99*13)</f>
         <v>1287</v>
       </c>
-      <c r="D99" s="3" t="n">
+      <c r="D99" s="0" t="n">
         <f aca="false">B99=C99</f>
         <v>0</v>
       </c>
@@ -2917,7 +2960,7 @@
         <f aca="false">13+(A100*13)</f>
         <v>1300</v>
       </c>
-      <c r="D100" s="3" t="n">
+      <c r="D100" s="0" t="n">
         <f aca="false">B100=C100</f>
         <v>0</v>
       </c>
@@ -2935,7 +2978,7 @@
         <f aca="false">13+(A101*13)</f>
         <v>1313</v>
       </c>
-      <c r="D101" s="3" t="n">
+      <c r="D101" s="0" t="n">
         <f aca="false">B101=C101</f>
         <v>0</v>
       </c>
@@ -2953,7 +2996,7 @@
         <f aca="false">13+(A102*13)</f>
         <v>1326</v>
       </c>
-      <c r="D102" s="3" t="n">
+      <c r="D102" s="0" t="n">
         <f aca="false">B102=C102</f>
         <v>0</v>
       </c>
@@ -2971,7 +3014,7 @@
         <f aca="false">13+(A103*13)</f>
         <v>1339</v>
       </c>
-      <c r="D103" s="3" t="n">
+      <c r="D103" s="0" t="n">
         <f aca="false">B103=C103</f>
         <v>0</v>
       </c>
@@ -2989,7 +3032,7 @@
         <f aca="false">13+(A104*13)</f>
         <v>1352</v>
       </c>
-      <c r="D104" s="3" t="n">
+      <c r="D104" s="0" t="n">
         <f aca="false">B104=C104</f>
         <v>0</v>
       </c>
@@ -3007,7 +3050,7 @@
         <f aca="false">13+(A105*13)</f>
         <v>1365</v>
       </c>
-      <c r="D105" s="3" t="n">
+      <c r="D105" s="0" t="n">
         <f aca="false">B105=C105</f>
         <v>0</v>
       </c>
@@ -3025,7 +3068,7 @@
         <f aca="false">13+(A106*13)</f>
         <v>1378</v>
       </c>
-      <c r="D106" s="3" t="n">
+      <c r="D106" s="0" t="n">
         <f aca="false">B106=C106</f>
         <v>0</v>
       </c>
@@ -3043,7 +3086,7 @@
         <f aca="false">13+(A107*13)</f>
         <v>1391</v>
       </c>
-      <c r="D107" s="3" t="n">
+      <c r="D107" s="0" t="n">
         <f aca="false">B107=C107</f>
         <v>0</v>
       </c>
@@ -3061,7 +3104,7 @@
         <f aca="false">13+(A108*13)</f>
         <v>1404</v>
       </c>
-      <c r="D108" s="3" t="n">
+      <c r="D108" s="0" t="n">
         <f aca="false">B108=C108</f>
         <v>0</v>
       </c>
@@ -3079,7 +3122,7 @@
         <f aca="false">13+(A109*13)</f>
         <v>1417</v>
       </c>
-      <c r="D109" s="3" t="n">
+      <c r="D109" s="0" t="n">
         <f aca="false">B109=C109</f>
         <v>0</v>
       </c>
@@ -3097,7 +3140,7 @@
         <f aca="false">13+(A110*13)</f>
         <v>1430</v>
       </c>
-      <c r="D110" s="3" t="n">
+      <c r="D110" s="0" t="n">
         <f aca="false">B110=C110</f>
         <v>0</v>
       </c>
@@ -3115,7 +3158,7 @@
         <f aca="false">13+(A111*13)</f>
         <v>1443</v>
       </c>
-      <c r="D111" s="3" t="n">
+      <c r="D111" s="0" t="n">
         <f aca="false">B111=C111</f>
         <v>0</v>
       </c>
@@ -3133,7 +3176,7 @@
         <f aca="false">13+(A112*13)</f>
         <v>1456</v>
       </c>
-      <c r="D112" s="3" t="n">
+      <c r="D112" s="0" t="n">
         <f aca="false">B112=C112</f>
         <v>0</v>
       </c>
@@ -3151,7 +3194,7 @@
         <f aca="false">13+(A113*13)</f>
         <v>1469</v>
       </c>
-      <c r="D113" s="3" t="n">
+      <c r="D113" s="0" t="n">
         <f aca="false">B113=C113</f>
         <v>0</v>
       </c>
@@ -3169,7 +3212,7 @@
         <f aca="false">13+(A114*13)</f>
         <v>1482</v>
       </c>
-      <c r="D114" s="3" t="n">
+      <c r="D114" s="0" t="n">
         <f aca="false">B114=C114</f>
         <v>0</v>
       </c>
@@ -3187,7 +3230,7 @@
         <f aca="false">13+(A115*13)</f>
         <v>1495</v>
       </c>
-      <c r="D115" s="3" t="n">
+      <c r="D115" s="0" t="n">
         <f aca="false">B115=C115</f>
         <v>0</v>
       </c>
@@ -3205,7 +3248,7 @@
         <f aca="false">13+(A116*13)</f>
         <v>1508</v>
       </c>
-      <c r="D116" s="3" t="n">
+      <c r="D116" s="0" t="n">
         <f aca="false">B116=C116</f>
         <v>0</v>
       </c>
@@ -3223,7 +3266,7 @@
         <f aca="false">13+(A117*13)</f>
         <v>1521</v>
       </c>
-      <c r="D117" s="3" t="n">
+      <c r="D117" s="0" t="n">
         <f aca="false">B117=C117</f>
         <v>0</v>
       </c>
@@ -3241,7 +3284,7 @@
         <f aca="false">13+(A118*13)</f>
         <v>1534</v>
       </c>
-      <c r="D118" s="3" t="n">
+      <c r="D118" s="0" t="n">
         <f aca="false">B118=C118</f>
         <v>0</v>
       </c>
@@ -3259,7 +3302,7 @@
         <f aca="false">13+(A119*13)</f>
         <v>1547</v>
       </c>
-      <c r="D119" s="3" t="n">
+      <c r="D119" s="0" t="n">
         <f aca="false">B119=C119</f>
         <v>0</v>
       </c>
@@ -3277,7 +3320,7 @@
         <f aca="false">13+(A120*13)</f>
         <v>1560</v>
       </c>
-      <c r="D120" s="3" t="n">
+      <c r="D120" s="0" t="n">
         <f aca="false">B120=C120</f>
         <v>0</v>
       </c>
@@ -3295,7 +3338,7 @@
         <f aca="false">13+(A121*13)</f>
         <v>1573</v>
       </c>
-      <c r="D121" s="3" t="n">
+      <c r="D121" s="0" t="n">
         <f aca="false">B121=C121</f>
         <v>0</v>
       </c>
@@ -3313,7 +3356,7 @@
         <f aca="false">13+(A122*13)</f>
         <v>1586</v>
       </c>
-      <c r="D122" s="3" t="n">
+      <c r="D122" s="0" t="n">
         <f aca="false">B122=C122</f>
         <v>0</v>
       </c>
@@ -3331,7 +3374,7 @@
         <f aca="false">13+(A123*13)</f>
         <v>1599</v>
       </c>
-      <c r="D123" s="3" t="n">
+      <c r="D123" s="0" t="n">
         <f aca="false">B123=C123</f>
         <v>0</v>
       </c>
@@ -3349,7 +3392,7 @@
         <f aca="false">13+(A124*13)</f>
         <v>1612</v>
       </c>
-      <c r="D124" s="3" t="n">
+      <c r="D124" s="0" t="n">
         <f aca="false">B124=C124</f>
         <v>0</v>
       </c>
@@ -3367,7 +3410,7 @@
         <f aca="false">13+(A125*13)</f>
         <v>1625</v>
       </c>
-      <c r="D125" s="3" t="n">
+      <c r="D125" s="0" t="n">
         <f aca="false">B125=C125</f>
         <v>0</v>
       </c>
@@ -3385,7 +3428,7 @@
         <f aca="false">13+(A126*13)</f>
         <v>1638</v>
       </c>
-      <c r="D126" s="3" t="n">
+      <c r="D126" s="0" t="n">
         <f aca="false">B126=C126</f>
         <v>0</v>
       </c>
@@ -3403,7 +3446,7 @@
         <f aca="false">13+(A127*13)</f>
         <v>1651</v>
       </c>
-      <c r="D127" s="3" t="n">
+      <c r="D127" s="0" t="n">
         <f aca="false">B127=C127</f>
         <v>0</v>
       </c>
@@ -3421,7 +3464,7 @@
         <f aca="false">13+(A128*13)</f>
         <v>1664</v>
       </c>
-      <c r="D128" s="3" t="n">
+      <c r="D128" s="0" t="n">
         <f aca="false">B128=C128</f>
         <v>0</v>
       </c>
@@ -3439,7 +3482,7 @@
         <f aca="false">13+(A129*13)</f>
         <v>1677</v>
       </c>
-      <c r="D129" s="3" t="n">
+      <c r="D129" s="0" t="n">
         <f aca="false">B129=C129</f>
         <v>0</v>
       </c>
@@ -3457,7 +3500,7 @@
         <f aca="false">13+(A130*13)</f>
         <v>1690</v>
       </c>
-      <c r="D130" s="3" t="n">
+      <c r="D130" s="0" t="n">
         <f aca="false">B130=C130</f>
         <v>0</v>
       </c>
@@ -3475,7 +3518,7 @@
         <f aca="false">13+(A131*13)</f>
         <v>1703</v>
       </c>
-      <c r="D131" s="3" t="n">
+      <c r="D131" s="0" t="n">
         <f aca="false">B131=C131</f>
         <v>0</v>
       </c>
@@ -3493,7 +3536,7 @@
         <f aca="false">13+(A132*13)</f>
         <v>1716</v>
       </c>
-      <c r="D132" s="3" t="n">
+      <c r="D132" s="0" t="n">
         <f aca="false">B132=C132</f>
         <v>0</v>
       </c>
@@ -3511,7 +3554,7 @@
         <f aca="false">13+(A133*13)</f>
         <v>1729</v>
       </c>
-      <c r="D133" s="3" t="n">
+      <c r="D133" s="0" t="n">
         <f aca="false">B133=C133</f>
         <v>0</v>
       </c>
@@ -3529,7 +3572,7 @@
         <f aca="false">13+(A134*13)</f>
         <v>1742</v>
       </c>
-      <c r="D134" s="3" t="n">
+      <c r="D134" s="0" t="n">
         <f aca="false">B134=C134</f>
         <v>0</v>
       </c>
@@ -3547,7 +3590,7 @@
         <f aca="false">13+(A135*13)</f>
         <v>1755</v>
       </c>
-      <c r="D135" s="3" t="n">
+      <c r="D135" s="0" t="n">
         <f aca="false">B135=C135</f>
         <v>0</v>
       </c>
@@ -3565,7 +3608,7 @@
         <f aca="false">13+(A136*13)</f>
         <v>1768</v>
       </c>
-      <c r="D136" s="3" t="n">
+      <c r="D136" s="0" t="n">
         <f aca="false">B136=C136</f>
         <v>0</v>
       </c>
@@ -3583,7 +3626,7 @@
         <f aca="false">13+(A137*13)</f>
         <v>1781</v>
       </c>
-      <c r="D137" s="3" t="n">
+      <c r="D137" s="0" t="n">
         <f aca="false">B137=C137</f>
         <v>0</v>
       </c>
@@ -3601,7 +3644,7 @@
         <f aca="false">13+(A138*13)</f>
         <v>1794</v>
       </c>
-      <c r="D138" s="3" t="n">
+      <c r="D138" s="0" t="n">
         <f aca="false">B138=C138</f>
         <v>0</v>
       </c>
@@ -3619,7 +3662,7 @@
         <f aca="false">13+(A139*13)</f>
         <v>1807</v>
       </c>
-      <c r="D139" s="3" t="n">
+      <c r="D139" s="0" t="n">
         <f aca="false">B139=C139</f>
         <v>0</v>
       </c>
@@ -3637,7 +3680,7 @@
         <f aca="false">13+(A140*13)</f>
         <v>1820</v>
       </c>
-      <c r="D140" s="3" t="n">
+      <c r="D140" s="0" t="n">
         <f aca="false">B140=C140</f>
         <v>0</v>
       </c>
@@ -3655,7 +3698,7 @@
         <f aca="false">13+(A141*13)</f>
         <v>1833</v>
       </c>
-      <c r="D141" s="3" t="n">
+      <c r="D141" s="0" t="n">
         <f aca="false">B141=C141</f>
         <v>0</v>
       </c>
@@ -3673,7 +3716,7 @@
         <f aca="false">13+(A142*13)</f>
         <v>1846</v>
       </c>
-      <c r="D142" s="3" t="n">
+      <c r="D142" s="0" t="n">
         <f aca="false">B142=C142</f>
         <v>0</v>
       </c>
@@ -3691,7 +3734,7 @@
         <f aca="false">13+(A143*13)</f>
         <v>1859</v>
       </c>
-      <c r="D143" s="3" t="n">
+      <c r="D143" s="0" t="n">
         <f aca="false">B143=C143</f>
         <v>0</v>
       </c>
@@ -3709,7 +3752,7 @@
         <f aca="false">13+(A144*13)</f>
         <v>1872</v>
       </c>
-      <c r="D144" s="3" t="n">
+      <c r="D144" s="0" t="n">
         <f aca="false">B144=C144</f>
         <v>0</v>
       </c>
@@ -3727,7 +3770,7 @@
         <f aca="false">13+(A145*13)</f>
         <v>1885</v>
       </c>
-      <c r="D145" s="3" t="n">
+      <c r="D145" s="0" t="n">
         <f aca="false">B145=C145</f>
         <v>0</v>
       </c>
@@ -3745,7 +3788,7 @@
         <f aca="false">13+(A146*13)</f>
         <v>1898</v>
       </c>
-      <c r="D146" s="3" t="n">
+      <c r="D146" s="0" t="n">
         <f aca="false">B146=C146</f>
         <v>0</v>
       </c>
@@ -3763,7 +3806,7 @@
         <f aca="false">13+(A147*13)</f>
         <v>1911</v>
       </c>
-      <c r="D147" s="3" t="n">
+      <c r="D147" s="0" t="n">
         <f aca="false">B147=C147</f>
         <v>0</v>
       </c>
@@ -3781,7 +3824,7 @@
         <f aca="false">13+(A148*13)</f>
         <v>1924</v>
       </c>
-      <c r="D148" s="3" t="n">
+      <c r="D148" s="0" t="n">
         <f aca="false">B148=C148</f>
         <v>0</v>
       </c>
@@ -3799,7 +3842,7 @@
         <f aca="false">13+(A149*13)</f>
         <v>1937</v>
       </c>
-      <c r="D149" s="3" t="n">
+      <c r="D149" s="0" t="n">
         <f aca="false">B149=C149</f>
         <v>0</v>
       </c>
@@ -3817,7 +3860,7 @@
         <f aca="false">13+(A150*13)</f>
         <v>1950</v>
       </c>
-      <c r="D150" s="3" t="n">
+      <c r="D150" s="0" t="n">
         <f aca="false">B150=C150</f>
         <v>0</v>
       </c>
@@ -3835,7 +3878,7 @@
         <f aca="false">13+(A151*13)</f>
         <v>1963</v>
       </c>
-      <c r="D151" s="3" t="n">
+      <c r="D151" s="0" t="n">
         <f aca="false">B151=C151</f>
         <v>0</v>
       </c>
@@ -3853,7 +3896,7 @@
         <f aca="false">13+(A152*13)</f>
         <v>1976</v>
       </c>
-      <c r="D152" s="3" t="n">
+      <c r="D152" s="0" t="n">
         <f aca="false">B152=C152</f>
         <v>0</v>
       </c>
@@ -3871,7 +3914,7 @@
         <f aca="false">13+(A153*13)</f>
         <v>1989</v>
       </c>
-      <c r="D153" s="3" t="n">
+      <c r="D153" s="0" t="n">
         <f aca="false">B153=C153</f>
         <v>0</v>
       </c>
@@ -3889,7 +3932,7 @@
         <f aca="false">13+(A154*13)</f>
         <v>2002</v>
       </c>
-      <c r="D154" s="3" t="n">
+      <c r="D154" s="0" t="n">
         <f aca="false">B154=C154</f>
         <v>0</v>
       </c>
@@ -3907,7 +3950,7 @@
         <f aca="false">13+(A155*13)</f>
         <v>2015</v>
       </c>
-      <c r="D155" s="3" t="n">
+      <c r="D155" s="0" t="n">
         <f aca="false">B155=C155</f>
         <v>0</v>
       </c>
@@ -3925,7 +3968,7 @@
         <f aca="false">13+(A156*13)</f>
         <v>2028</v>
       </c>
-      <c r="D156" s="3" t="n">
+      <c r="D156" s="0" t="n">
         <f aca="false">B156=C156</f>
         <v>0</v>
       </c>
@@ -3943,7 +3986,7 @@
         <f aca="false">13+(A157*13)</f>
         <v>2041</v>
       </c>
-      <c r="D157" s="3" t="n">
+      <c r="D157" s="0" t="n">
         <f aca="false">B157=C157</f>
         <v>0</v>
       </c>
@@ -3961,7 +4004,7 @@
         <f aca="false">13+(A158*13)</f>
         <v>2054</v>
       </c>
-      <c r="D158" s="3" t="n">
+      <c r="D158" s="0" t="n">
         <f aca="false">B158=C158</f>
         <v>0</v>
       </c>
@@ -3979,7 +4022,7 @@
         <f aca="false">13+(A159*13)</f>
         <v>2067</v>
       </c>
-      <c r="D159" s="3" t="n">
+      <c r="D159" s="0" t="n">
         <f aca="false">B159=C159</f>
         <v>0</v>
       </c>
@@ -3997,7 +4040,7 @@
         <f aca="false">13+(A160*13)</f>
         <v>2080</v>
       </c>
-      <c r="D160" s="3" t="n">
+      <c r="D160" s="0" t="n">
         <f aca="false">B160=C160</f>
         <v>0</v>
       </c>
@@ -4015,7 +4058,7 @@
         <f aca="false">13+(A161*13)</f>
         <v>2093</v>
       </c>
-      <c r="D161" s="3" t="n">
+      <c r="D161" s="0" t="n">
         <f aca="false">B161=C161</f>
         <v>0</v>
       </c>
@@ -4033,7 +4076,7 @@
         <f aca="false">13+(A162*13)</f>
         <v>2106</v>
       </c>
-      <c r="D162" s="3" t="n">
+      <c r="D162" s="0" t="n">
         <f aca="false">B162=C162</f>
         <v>0</v>
       </c>
@@ -4051,7 +4094,7 @@
         <f aca="false">13+(A163*13)</f>
         <v>2119</v>
       </c>
-      <c r="D163" s="3" t="n">
+      <c r="D163" s="0" t="n">
         <f aca="false">B163=C163</f>
         <v>0</v>
       </c>
@@ -4069,7 +4112,7 @@
         <f aca="false">13+(A164*13)</f>
         <v>2132</v>
       </c>
-      <c r="D164" s="3" t="n">
+      <c r="D164" s="0" t="n">
         <f aca="false">B164=C164</f>
         <v>0</v>
       </c>
@@ -4087,7 +4130,7 @@
         <f aca="false">13+(A165*13)</f>
         <v>2145</v>
       </c>
-      <c r="D165" s="3" t="n">
+      <c r="D165" s="0" t="n">
         <f aca="false">B165=C165</f>
         <v>0</v>
       </c>
@@ -4105,7 +4148,7 @@
         <f aca="false">13+(A166*13)</f>
         <v>2158</v>
       </c>
-      <c r="D166" s="3" t="n">
+      <c r="D166" s="0" t="n">
         <f aca="false">B166=C166</f>
         <v>0</v>
       </c>
@@ -4123,7 +4166,7 @@
         <f aca="false">13+(A167*13)</f>
         <v>2171</v>
       </c>
-      <c r="D167" s="3" t="n">
+      <c r="D167" s="0" t="n">
         <f aca="false">B167=C167</f>
         <v>0</v>
       </c>
@@ -4141,7 +4184,7 @@
         <f aca="false">13+(A168*13)</f>
         <v>2184</v>
       </c>
-      <c r="D168" s="3" t="n">
+      <c r="D168" s="0" t="n">
         <f aca="false">B168=C168</f>
         <v>0</v>
       </c>
@@ -4159,7 +4202,7 @@
         <f aca="false">13+(A169*13)</f>
         <v>2197</v>
       </c>
-      <c r="D169" s="3" t="n">
+      <c r="D169" s="0" t="n">
         <f aca="false">B169=C169</f>
         <v>0</v>
       </c>
@@ -4177,7 +4220,7 @@
         <f aca="false">13+(A170*13)</f>
         <v>2210</v>
       </c>
-      <c r="D170" s="3" t="n">
+      <c r="D170" s="0" t="n">
         <f aca="false">B170=C170</f>
         <v>0</v>
       </c>
@@ -4195,7 +4238,7 @@
         <f aca="false">13+(A171*13)</f>
         <v>2223</v>
       </c>
-      <c r="D171" s="3" t="n">
+      <c r="D171" s="0" t="n">
         <f aca="false">B171=C171</f>
         <v>0</v>
       </c>
@@ -4213,7 +4256,7 @@
         <f aca="false">13+(A172*13)</f>
         <v>2236</v>
       </c>
-      <c r="D172" s="3" t="n">
+      <c r="D172" s="0" t="n">
         <f aca="false">B172=C172</f>
         <v>0</v>
       </c>
@@ -4231,7 +4274,7 @@
         <f aca="false">13+(A173*13)</f>
         <v>2249</v>
       </c>
-      <c r="D173" s="3" t="n">
+      <c r="D173" s="0" t="n">
         <f aca="false">B173=C173</f>
         <v>0</v>
       </c>
@@ -4249,7 +4292,7 @@
         <f aca="false">13+(A174*13)</f>
         <v>2262</v>
       </c>
-      <c r="D174" s="3" t="n">
+      <c r="D174" s="0" t="n">
         <f aca="false">B174=C174</f>
         <v>0</v>
       </c>
@@ -4267,7 +4310,7 @@
         <f aca="false">13+(A175*13)</f>
         <v>2275</v>
       </c>
-      <c r="D175" s="3" t="n">
+      <c r="D175" s="0" t="n">
         <f aca="false">B175=C175</f>
         <v>0</v>
       </c>
@@ -4285,7 +4328,7 @@
         <f aca="false">13+(A176*13)</f>
         <v>2288</v>
       </c>
-      <c r="D176" s="3" t="n">
+      <c r="D176" s="0" t="n">
         <f aca="false">B176=C176</f>
         <v>0</v>
       </c>
@@ -4303,7 +4346,7 @@
         <f aca="false">13+(A177*13)</f>
         <v>2301</v>
       </c>
-      <c r="D177" s="3" t="n">
+      <c r="D177" s="0" t="n">
         <f aca="false">B177=C177</f>
         <v>0</v>
       </c>
@@ -4321,7 +4364,7 @@
         <f aca="false">13+(A178*13)</f>
         <v>2314</v>
       </c>
-      <c r="D178" s="3" t="n">
+      <c r="D178" s="0" t="n">
         <f aca="false">B178=C178</f>
         <v>0</v>
       </c>
@@ -4339,7 +4382,7 @@
         <f aca="false">13+(A179*13)</f>
         <v>2327</v>
       </c>
-      <c r="D179" s="3" t="n">
+      <c r="D179" s="0" t="n">
         <f aca="false">B179=C179</f>
         <v>0</v>
       </c>
@@ -4357,7 +4400,7 @@
         <f aca="false">13+(A180*13)</f>
         <v>2340</v>
       </c>
-      <c r="D180" s="3" t="n">
+      <c r="D180" s="0" t="n">
         <f aca="false">B180=C180</f>
         <v>0</v>
       </c>
@@ -4375,7 +4418,7 @@
         <f aca="false">13+(A181*13)</f>
         <v>2353</v>
       </c>
-      <c r="D181" s="3" t="n">
+      <c r="D181" s="0" t="n">
         <f aca="false">B181=C181</f>
         <v>0</v>
       </c>
@@ -4393,7 +4436,7 @@
         <f aca="false">13+(A182*13)</f>
         <v>2366</v>
       </c>
-      <c r="D182" s="3" t="n">
+      <c r="D182" s="0" t="n">
         <f aca="false">B182=C182</f>
         <v>0</v>
       </c>
@@ -4411,7 +4454,7 @@
         <f aca="false">13+(A183*13)</f>
         <v>2379</v>
       </c>
-      <c r="D183" s="3" t="n">
+      <c r="D183" s="0" t="n">
         <f aca="false">B183=C183</f>
         <v>0</v>
       </c>
@@ -4429,7 +4472,7 @@
         <f aca="false">13+(A184*13)</f>
         <v>2392</v>
       </c>
-      <c r="D184" s="3" t="n">
+      <c r="D184" s="0" t="n">
         <f aca="false">B184=C184</f>
         <v>0</v>
       </c>
@@ -4447,7 +4490,7 @@
         <f aca="false">13+(A185*13)</f>
         <v>2405</v>
       </c>
-      <c r="D185" s="3" t="n">
+      <c r="D185" s="0" t="n">
         <f aca="false">B185=C185</f>
         <v>0</v>
       </c>
@@ -4465,7 +4508,7 @@
         <f aca="false">13+(A186*13)</f>
         <v>2418</v>
       </c>
-      <c r="D186" s="3" t="n">
+      <c r="D186" s="0" t="n">
         <f aca="false">B186=C186</f>
         <v>0</v>
       </c>
@@ -4483,7 +4526,7 @@
         <f aca="false">13+(A187*13)</f>
         <v>2431</v>
       </c>
-      <c r="D187" s="3" t="n">
+      <c r="D187" s="0" t="n">
         <f aca="false">B187=C187</f>
         <v>0</v>
       </c>
@@ -4501,7 +4544,7 @@
         <f aca="false">13+(A188*13)</f>
         <v>2444</v>
       </c>
-      <c r="D188" s="3" t="n">
+      <c r="D188" s="0" t="n">
         <f aca="false">B188=C188</f>
         <v>0</v>
       </c>
@@ -4519,7 +4562,7 @@
         <f aca="false">13+(A189*13)</f>
         <v>2457</v>
       </c>
-      <c r="D189" s="3" t="n">
+      <c r="D189" s="0" t="n">
         <f aca="false">B189=C189</f>
         <v>0</v>
       </c>
@@ -4537,7 +4580,7 @@
         <f aca="false">13+(A190*13)</f>
         <v>2470</v>
       </c>
-      <c r="D190" s="3" t="n">
+      <c r="D190" s="0" t="n">
         <f aca="false">B190=C190</f>
         <v>0</v>
       </c>
@@ -4555,7 +4598,7 @@
         <f aca="false">13+(A191*13)</f>
         <v>2483</v>
       </c>
-      <c r="D191" s="3" t="n">
+      <c r="D191" s="0" t="n">
         <f aca="false">B191=C191</f>
         <v>0</v>
       </c>
@@ -4573,7 +4616,7 @@
         <f aca="false">13+(A192*13)</f>
         <v>2496</v>
       </c>
-      <c r="D192" s="3" t="n">
+      <c r="D192" s="0" t="n">
         <f aca="false">B192=C192</f>
         <v>0</v>
       </c>
@@ -4591,7 +4634,7 @@
         <f aca="false">13+(A193*13)</f>
         <v>2509</v>
       </c>
-      <c r="D193" s="3" t="n">
+      <c r="D193" s="0" t="n">
         <f aca="false">B193=C193</f>
         <v>0</v>
       </c>
@@ -4609,7 +4652,7 @@
         <f aca="false">13+(A194*13)</f>
         <v>2522</v>
       </c>
-      <c r="D194" s="3" t="n">
+      <c r="D194" s="0" t="n">
         <f aca="false">B194=C194</f>
         <v>0</v>
       </c>
@@ -4627,7 +4670,7 @@
         <f aca="false">13+(A195*13)</f>
         <v>2535</v>
       </c>
-      <c r="D195" s="3" t="n">
+      <c r="D195" s="0" t="n">
         <f aca="false">B195=C195</f>
         <v>0</v>
       </c>
@@ -4645,7 +4688,7 @@
         <f aca="false">13+(A196*13)</f>
         <v>2548</v>
       </c>
-      <c r="D196" s="3" t="n">
+      <c r="D196" s="0" t="n">
         <f aca="false">B196=C196</f>
         <v>0</v>
       </c>
@@ -4663,7 +4706,7 @@
         <f aca="false">13+(A197*13)</f>
         <v>2561</v>
       </c>
-      <c r="D197" s="3" t="n">
+      <c r="D197" s="0" t="n">
         <f aca="false">B197=C197</f>
         <v>0</v>
       </c>
@@ -4681,7 +4724,7 @@
         <f aca="false">13+(A198*13)</f>
         <v>2574</v>
       </c>
-      <c r="D198" s="3" t="n">
+      <c r="D198" s="0" t="n">
         <f aca="false">B198=C198</f>
         <v>0</v>
       </c>
@@ -4699,7 +4742,7 @@
         <f aca="false">13+(A199*13)</f>
         <v>2587</v>
       </c>
-      <c r="D199" s="3" t="n">
+      <c r="D199" s="0" t="n">
         <f aca="false">B199=C199</f>
         <v>0</v>
       </c>
@@ -4717,7 +4760,7 @@
         <f aca="false">13+(A200*13)</f>
         <v>2600</v>
       </c>
-      <c r="D200" s="3" t="n">
+      <c r="D200" s="0" t="n">
         <f aca="false">B200=C200</f>
         <v>0</v>
       </c>
@@ -4735,7 +4778,7 @@
         <f aca="false">13+(A201*13)</f>
         <v>2613</v>
       </c>
-      <c r="D201" s="3" t="n">
+      <c r="D201" s="0" t="n">
         <f aca="false">B201=C201</f>
         <v>0</v>
       </c>
@@ -4753,7 +4796,7 @@
         <f aca="false">13+(A202*13)</f>
         <v>2626</v>
       </c>
-      <c r="D202" s="3" t="n">
+      <c r="D202" s="0" t="n">
         <f aca="false">B202=C202</f>
         <v>0</v>
       </c>
@@ -4771,7 +4814,7 @@
         <f aca="false">13+(A203*13)</f>
         <v>2639</v>
       </c>
-      <c r="D203" s="3" t="n">
+      <c r="D203" s="0" t="n">
         <f aca="false">B203=C203</f>
         <v>0</v>
       </c>
@@ -4789,7 +4832,7 @@
         <f aca="false">13+(A204*13)</f>
         <v>2652</v>
       </c>
-      <c r="D204" s="3" t="n">
+      <c r="D204" s="0" t="n">
         <f aca="false">B204=C204</f>
         <v>0</v>
       </c>
@@ -4807,7 +4850,7 @@
         <f aca="false">13+(A205*13)</f>
         <v>2665</v>
       </c>
-      <c r="D205" s="3" t="n">
+      <c r="D205" s="0" t="n">
         <f aca="false">B205=C205</f>
         <v>0</v>
       </c>
@@ -4825,7 +4868,7 @@
         <f aca="false">13+(A206*13)</f>
         <v>2678</v>
       </c>
-      <c r="D206" s="3" t="n">
+      <c r="D206" s="0" t="n">
         <f aca="false">B206=C206</f>
         <v>0</v>
       </c>
@@ -4843,7 +4886,7 @@
         <f aca="false">13+(A207*13)</f>
         <v>2691</v>
       </c>
-      <c r="D207" s="3" t="n">
+      <c r="D207" s="0" t="n">
         <f aca="false">B207=C207</f>
         <v>0</v>
       </c>
@@ -4861,7 +4904,7 @@
         <f aca="false">13+(A208*13)</f>
         <v>2704</v>
       </c>
-      <c r="D208" s="3" t="n">
+      <c r="D208" s="0" t="n">
         <f aca="false">B208=C208</f>
         <v>0</v>
       </c>
@@ -4879,7 +4922,7 @@
         <f aca="false">13+(A209*13)</f>
         <v>2717</v>
       </c>
-      <c r="D209" s="3" t="n">
+      <c r="D209" s="0" t="n">
         <f aca="false">B209=C209</f>
         <v>0</v>
       </c>
@@ -4897,7 +4940,7 @@
         <f aca="false">13+(A210*13)</f>
         <v>2730</v>
       </c>
-      <c r="D210" s="3" t="n">
+      <c r="D210" s="0" t="n">
         <f aca="false">B210=C210</f>
         <v>0</v>
       </c>
@@ -4915,7 +4958,7 @@
         <f aca="false">13+(A211*13)</f>
         <v>2743</v>
       </c>
-      <c r="D211" s="3" t="n">
+      <c r="D211" s="0" t="n">
         <f aca="false">B211=C211</f>
         <v>0</v>
       </c>
@@ -4933,7 +4976,7 @@
         <f aca="false">13+(A212*13)</f>
         <v>2756</v>
       </c>
-      <c r="D212" s="3" t="n">
+      <c r="D212" s="0" t="n">
         <f aca="false">B212=C212</f>
         <v>0</v>
       </c>
@@ -4951,7 +4994,7 @@
         <f aca="false">13+(A213*13)</f>
         <v>2769</v>
       </c>
-      <c r="D213" s="3" t="n">
+      <c r="D213" s="0" t="n">
         <f aca="false">B213=C213</f>
         <v>0</v>
       </c>
@@ -4969,7 +5012,7 @@
         <f aca="false">13+(A214*13)</f>
         <v>2782</v>
       </c>
-      <c r="D214" s="3" t="n">
+      <c r="D214" s="0" t="n">
         <f aca="false">B214=C214</f>
         <v>0</v>
       </c>
@@ -4987,7 +5030,7 @@
         <f aca="false">13+(A215*13)</f>
         <v>2795</v>
       </c>
-      <c r="D215" s="3" t="n">
+      <c r="D215" s="0" t="n">
         <f aca="false">B215=C215</f>
         <v>0</v>
       </c>
@@ -5005,7 +5048,7 @@
         <f aca="false">13+(A216*13)</f>
         <v>2808</v>
       </c>
-      <c r="D216" s="3" t="n">
+      <c r="D216" s="0" t="n">
         <f aca="false">B216=C216</f>
         <v>0</v>
       </c>
@@ -5023,7 +5066,7 @@
         <f aca="false">13+(A217*13)</f>
         <v>2821</v>
       </c>
-      <c r="D217" s="3" t="n">
+      <c r="D217" s="0" t="n">
         <f aca="false">B217=C217</f>
         <v>0</v>
       </c>
@@ -5041,7 +5084,7 @@
         <f aca="false">13+(A218*13)</f>
         <v>2834</v>
       </c>
-      <c r="D218" s="3" t="n">
+      <c r="D218" s="0" t="n">
         <f aca="false">B218=C218</f>
         <v>0</v>
       </c>
@@ -5059,7 +5102,7 @@
         <f aca="false">13+(A219*13)</f>
         <v>2847</v>
       </c>
-      <c r="D219" s="3" t="n">
+      <c r="D219" s="0" t="n">
         <f aca="false">B219=C219</f>
         <v>0</v>
       </c>
@@ -5077,7 +5120,7 @@
         <f aca="false">13+(A220*13)</f>
         <v>2860</v>
       </c>
-      <c r="D220" s="3" t="n">
+      <c r="D220" s="0" t="n">
         <f aca="false">B220=C220</f>
         <v>0</v>
       </c>
@@ -5095,7 +5138,7 @@
         <f aca="false">13+(A221*13)</f>
         <v>2873</v>
       </c>
-      <c r="D221" s="3" t="n">
+      <c r="D221" s="0" t="n">
         <f aca="false">B221=C221</f>
         <v>0</v>
       </c>
@@ -5113,7 +5156,7 @@
         <f aca="false">13+(A222*13)</f>
         <v>2886</v>
       </c>
-      <c r="D222" s="3" t="n">
+      <c r="D222" s="0" t="n">
         <f aca="false">B222=C222</f>
         <v>0</v>
       </c>
@@ -5131,7 +5174,7 @@
         <f aca="false">13+(A223*13)</f>
         <v>2899</v>
       </c>
-      <c r="D223" s="3" t="n">
+      <c r="D223" s="0" t="n">
         <f aca="false">B223=C223</f>
         <v>0</v>
       </c>
@@ -5149,7 +5192,7 @@
         <f aca="false">13+(A224*13)</f>
         <v>2912</v>
       </c>
-      <c r="D224" s="3" t="n">
+      <c r="D224" s="0" t="n">
         <f aca="false">B224=C224</f>
         <v>0</v>
       </c>
@@ -5167,7 +5210,7 @@
         <f aca="false">13+(A225*13)</f>
         <v>2925</v>
       </c>
-      <c r="D225" s="3" t="n">
+      <c r="D225" s="0" t="n">
         <f aca="false">B225=C225</f>
         <v>0</v>
       </c>
@@ -5185,7 +5228,7 @@
         <f aca="false">13+(A226*13)</f>
         <v>2938</v>
       </c>
-      <c r="D226" s="3" t="n">
+      <c r="D226" s="0" t="n">
         <f aca="false">B226=C226</f>
         <v>0</v>
       </c>
@@ -5203,7 +5246,7 @@
         <f aca="false">13+(A227*13)</f>
         <v>2951</v>
       </c>
-      <c r="D227" s="3" t="n">
+      <c r="D227" s="0" t="n">
         <f aca="false">B227=C227</f>
         <v>0</v>
       </c>
@@ -5221,7 +5264,7 @@
         <f aca="false">13+(A228*13)</f>
         <v>2964</v>
       </c>
-      <c r="D228" s="3" t="n">
+      <c r="D228" s="0" t="n">
         <f aca="false">B228=C228</f>
         <v>0</v>
       </c>
@@ -5239,7 +5282,7 @@
         <f aca="false">13+(A229*13)</f>
         <v>2977</v>
       </c>
-      <c r="D229" s="3" t="n">
+      <c r="D229" s="0" t="n">
         <f aca="false">B229=C229</f>
         <v>0</v>
       </c>
@@ -5257,7 +5300,7 @@
         <f aca="false">13+(A230*13)</f>
         <v>2990</v>
       </c>
-      <c r="D230" s="3" t="n">
+      <c r="D230" s="0" t="n">
         <f aca="false">B230=C230</f>
         <v>0</v>
       </c>
@@ -5275,7 +5318,7 @@
         <f aca="false">13+(A231*13)</f>
         <v>3003</v>
       </c>
-      <c r="D231" s="3" t="n">
+      <c r="D231" s="0" t="n">
         <f aca="false">B231=C231</f>
         <v>0</v>
       </c>
@@ -5293,7 +5336,7 @@
         <f aca="false">13+(A232*13)</f>
         <v>3016</v>
       </c>
-      <c r="D232" s="3" t="n">
+      <c r="D232" s="0" t="n">
         <f aca="false">B232=C232</f>
         <v>0</v>
       </c>
@@ -5311,7 +5354,7 @@
         <f aca="false">13+(A233*13)</f>
         <v>3029</v>
       </c>
-      <c r="D233" s="3" t="n">
+      <c r="D233" s="0" t="n">
         <f aca="false">B233=C233</f>
         <v>0</v>
       </c>
@@ -5329,7 +5372,7 @@
         <f aca="false">13+(A234*13)</f>
         <v>3042</v>
       </c>
-      <c r="D234" s="3" t="n">
+      <c r="D234" s="0" t="n">
         <f aca="false">B234=C234</f>
         <v>0</v>
       </c>
@@ -5347,7 +5390,7 @@
         <f aca="false">13+(A235*13)</f>
         <v>3055</v>
       </c>
-      <c r="D235" s="3" t="n">
+      <c r="D235" s="0" t="n">
         <f aca="false">B235=C235</f>
         <v>0</v>
       </c>
@@ -5365,7 +5408,7 @@
         <f aca="false">13+(A236*13)</f>
         <v>3068</v>
       </c>
-      <c r="D236" s="3" t="n">
+      <c r="D236" s="0" t="n">
         <f aca="false">B236=C236</f>
         <v>0</v>
       </c>
@@ -5383,7 +5426,7 @@
         <f aca="false">13+(A237*13)</f>
         <v>3081</v>
       </c>
-      <c r="D237" s="3" t="n">
+      <c r="D237" s="0" t="n">
         <f aca="false">B237=C237</f>
         <v>0</v>
       </c>
@@ -5401,7 +5444,7 @@
         <f aca="false">13+(A238*13)</f>
         <v>3094</v>
       </c>
-      <c r="D238" s="3" t="n">
+      <c r="D238" s="0" t="n">
         <f aca="false">B238=C238</f>
         <v>0</v>
       </c>
@@ -5419,7 +5462,7 @@
         <f aca="false">13+(A239*13)</f>
         <v>3107</v>
       </c>
-      <c r="D239" s="3" t="n">
+      <c r="D239" s="0" t="n">
         <f aca="false">B239=C239</f>
         <v>0</v>
       </c>
@@ -5437,7 +5480,7 @@
         <f aca="false">13+(A240*13)</f>
         <v>3120</v>
       </c>
-      <c r="D240" s="3" t="n">
+      <c r="D240" s="0" t="n">
         <f aca="false">B240=C240</f>
         <v>0</v>
       </c>
@@ -5455,7 +5498,7 @@
         <f aca="false">13+(A241*13)</f>
         <v>3133</v>
       </c>
-      <c r="D241" s="3" t="n">
+      <c r="D241" s="0" t="n">
         <f aca="false">B241=C241</f>
         <v>0</v>
       </c>
@@ -5463,7 +5506,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -5479,12 +5522,12 @@
   <dimension ref="A9:V241"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V9" activeCellId="0" sqref="V9"/>
+      <selection pane="topLeft" activeCell="V9" activeCellId="1" sqref="X20:X21 V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19435,7 +19478,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
@@ -19450,15 +19493,15 @@
   </sheetPr>
   <dimension ref="A1:BF64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D53" activeCellId="1" sqref="X20:X21 D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.53571428571429"/>
-    <col collapsed="false" hidden="false" max="29" min="2" style="0" width="2.54591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="29" min="1" style="0" width="2.42857142857143"/>
+    <col collapsed="false" hidden="false" max="39" min="30" style="0" width="2.54591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="40" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19689,6 +19732,15 @@
       <c r="L4" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="R4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE4" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -19705,19 +19757,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>12</v>
@@ -19727,6 +19779,60 @@
       </c>
       <c r="L5" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19744,19 +19850,19 @@
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>12</v>
@@ -19780,7 +19886,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>10</v>
@@ -19789,7 +19895,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>9</v>
@@ -19798,7 +19904,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>12</v>
@@ -19819,25 +19925,25 @@
         <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>12</v>
@@ -19855,7 +19961,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>10</v>
@@ -19864,13 +19970,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="H9" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>10</v>
@@ -19879,7 +19985,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>8</v>
@@ -19906,7 +20012,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>8</v>
@@ -20046,7 +20152,7 @@
         <v>9</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R13" s="0" t="s">
         <v>8</v>
@@ -20082,7 +20188,7 @@
         <v>9</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>12</v>
@@ -20109,7 +20215,7 @@
         <v>12</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>11</v>
@@ -20136,31 +20242,31 @@
         <v>9</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>12</v>
@@ -20169,16 +20275,16 @@
         <v>12</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R15" s="0" t="s">
         <v>10</v>
@@ -20191,6 +20297,12 @@
       </c>
       <c r="U15" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="AP15" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ15" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20199,7 +20311,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
@@ -20208,13 +20320,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>11</v>
@@ -20229,10 +20341,10 @@
         <v>8</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>9</v>
@@ -20250,13 +20362,19 @@
         <v>11</v>
       </c>
       <c r="S16" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T16" s="0" t="s">
         <v>11</v>
       </c>
       <c r="U16" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="AP16" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ16" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20283,7 +20401,7 @@
         <v>10</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>8</v>
@@ -20301,25 +20419,25 @@
         <v>9</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>12</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="0" t="s">
         <v>11</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>11</v>
       </c>
       <c r="T17" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="U17" s="0" t="s">
         <v>11</v>
@@ -20343,7 +20461,7 @@
         <v>8</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G18" s="0" t="s">
         <v>11</v>
@@ -20364,7 +20482,7 @@
         <v>12</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>11</v>
@@ -20376,13 +20494,13 @@
         <v>8</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R18" s="0" t="s">
         <v>11</v>
       </c>
       <c r="S18" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T18" s="0" t="s">
         <v>11</v>
@@ -20418,13 +20536,13 @@
         <v>9</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L19" s="0" t="s">
         <v>12</v>
@@ -20433,7 +20551,7 @@
         <v>9</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>12</v>
@@ -20451,10 +20569,10 @@
         <v>8</v>
       </c>
       <c r="T19" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20478,10 +20596,10 @@
         <v>9</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>10</v>
@@ -20565,16 +20683,16 @@
         <v>10</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20586,7 +20704,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20643,7 +20761,7 @@
         <v>9</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>12</v>
@@ -20655,7 +20773,7 @@
         <v>9</v>
       </c>
       <c r="V28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W28" s="0" t="s">
         <v>12</v>
@@ -20676,22 +20794,22 @@
         <v>12</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>12</v>
       </c>
       <c r="S29" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W29" s="0" t="s">
         <v>12</v>
@@ -20706,13 +20824,13 @@
         <v>18</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R30" s="0" t="s">
         <v>10</v>
@@ -20730,7 +20848,7 @@
         <v>10</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BF30" s="0" t="s">
         <v>8</v>
@@ -20750,29 +20868,29 @@
         <f aca="false">A31+1</f>
         <v>20</v>
       </c>
+      <c r="X32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AE32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AF32" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG32" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH32" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ32" s="0" t="n">
-        <f aca="false">ABS(AE32-AG32) + ABS(AH32-AF32)</f>
-        <v>9</v>
-      </c>
-      <c r="AK32" s="0" t="n">
-        <f aca="false">AJ32+(99*3)</f>
-        <v>306</v>
-      </c>
-      <c r="AL32" s="0" t="n">
-        <f aca="false">AF33-AF32</f>
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="BF32" s="0" t="s">
         <v>8</v>
@@ -20783,29 +20901,17 @@
         <f aca="false">A32+1</f>
         <v>21</v>
       </c>
-      <c r="AE33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="0" t="n">
-        <v>102</v>
-      </c>
-      <c r="AG33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="0" t="n">
-        <v>205</v>
-      </c>
-      <c r="AJ33" s="0" t="n">
-        <f aca="false">ABS(AE33-AG33) + ABS(AH33-AF33)</f>
-        <v>104</v>
-      </c>
-      <c r="AL33" s="0" t="n">
-        <f aca="false">AH33-AH32</f>
-        <v>194</v>
-      </c>
-      <c r="AM33" s="0" t="n">
-        <f aca="false">(2*99)-AL33</f>
-        <v>4</v>
+      <c r="Y33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF33" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG33" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="BF33" s="0" t="s">
         <v>8</v>
@@ -20825,6 +20931,30 @@
         <f aca="false">A34+1</f>
         <v>23</v>
       </c>
+      <c r="X35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="BF35" s="0" t="n">
         <v>6</v>
       </c>
@@ -20834,6 +20964,18 @@
         <f aca="false">A35+1</f>
         <v>24</v>
       </c>
+      <c r="Y36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF36" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG36" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="BF36" s="0" t="s">
         <v>8</v>
       </c>
@@ -20890,6 +21032,30 @@
       <c r="N38" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="X38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH38" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="BF38" s="0" t="s">
         <v>8</v>
       </c>
@@ -20938,6 +21104,18 @@
       <c r="N39" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="Y39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF39" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG39" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="BF39" s="0" t="s">
         <v>8</v>
       </c>
@@ -21031,6 +21209,30 @@
       <c r="N41" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="X41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -21076,6 +21278,18 @@
       <c r="N42" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="Y42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG42" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -21415,36 +21629,99 @@
         <f aca="false">A52+1</f>
         <v>15</v>
       </c>
+      <c r="G53" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <f aca="false">A53+1</f>
         <v>16</v>
       </c>
+      <c r="D54" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <f aca="false">A54+1</f>
         <v>17</v>
       </c>
+      <c r="D55" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <f aca="false">A55+1</f>
         <v>18</v>
       </c>
+      <c r="D56" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <f aca="false">A56+1</f>
         <v>19</v>
       </c>
+      <c r="D57" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <f aca="false">A57+1</f>
         <v>20</v>
       </c>
+      <c r="D58" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -21485,7 +21762,1628 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O1" activeCellId="1" sqref="X20:X21 O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.56632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="2.56632653061224"/>
+    <col collapsed="false" hidden="false" max="15" min="3" style="0" width="2.56632653061224"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="2.14285714285714"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="2.56632653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AA49"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X20" activeCellId="0" sqref="X20:X21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.06122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="3.06122448979592"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="3.06122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="V1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="W20" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="X20" s="7" t="str">
+        <f aca="false">SUBSTITUTE(SUBSTITUTE( DEC2BIN(W20) &amp; "", "0", "."), "1", "#")</f>
+        <v>#.##.#.</v>
+      </c>
+      <c r="Z20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">BIN2DEC( SUBSTITUTE(SUBSTITUTE(Z20, "#", "1"), ".", "0"))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="n">
+        <f aca="false">0</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <f aca="false">B21+1</f>
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <f aca="false">C21+1</f>
+        <v>2</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <f aca="false">D21+1</f>
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <f aca="false">E21+1</f>
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <f aca="false">F21+1</f>
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <f aca="false">G21+1</f>
+        <v>6</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <f aca="false">H21+1</f>
+        <v>7</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <f aca="false">I21+1</f>
+        <v>8</v>
+      </c>
+      <c r="K21" s="3" t="n">
+        <f aca="false">J21+1</f>
+        <v>9</v>
+      </c>
+      <c r="L21" s="3" t="n">
+        <f aca="false">K21+1</f>
+        <v>10</v>
+      </c>
+      <c r="M21" s="3" t="n">
+        <f aca="false">L21+1</f>
+        <v>11</v>
+      </c>
+      <c r="N21" s="3" t="n">
+        <f aca="false">M21+1</f>
+        <v>12</v>
+      </c>
+      <c r="O21" s="3" t="n">
+        <f aca="false">N21+1</f>
+        <v>13</v>
+      </c>
+      <c r="P21" s="3" t="n">
+        <f aca="false">O21+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q21" s="3" t="n">
+        <f aca="false">P21+1</f>
+        <v>15</v>
+      </c>
+      <c r="R21" s="3" t="n">
+        <f aca="false">Q21+1</f>
+        <v>16</v>
+      </c>
+      <c r="S21" s="3" t="n">
+        <f aca="false">R21+1</f>
+        <v>17</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>346</v>
+      </c>
+      <c r="X21" s="7" t="str">
+        <f aca="false">SUBSTITUTE(SUBSTITUTE( DEC2BIN(W21) &amp; "", "0", "."), "1", "#")</f>
+        <v>#.#.##.#.</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <f aca="false">A22+1</f>
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <f aca="false">A23+1</f>
+        <v>2</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <f aca="false">A24+1</f>
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <f aca="false">A25+1</f>
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <f aca="false">A26+1</f>
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <f aca="false">A27+1</f>
+        <v>6</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <f aca="false">A28+1</f>
+        <v>7</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <f aca="false">A29+1</f>
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <f aca="false">A30+1</f>
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <f aca="false">A31+1</f>
+        <v>10</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <f aca="false">A32+1</f>
+        <v>11</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <f aca="false">A33+1</f>
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <f aca="false">A34+1</f>
+        <v>13</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <f aca="false">A35+1</f>
+        <v>14</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <f aca="false">A36+1</f>
+        <v>15</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <f aca="false">A37+1</f>
+        <v>16</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="N40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="N43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="T45" s="0" t="str">
+        <f aca="false">B45 &amp; C45 &amp; D45 &amp; E45 &amp; F45 &amp; G45 &amp; H45 &amp; I45 &amp; J45</f>
+        <v>101100110</v>
+      </c>
+      <c r="U45" s="0" t="n">
+        <f aca="false">BIN2DEC(T45)</f>
+        <v>358</v>
+      </c>
+      <c r="V45" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="W45" s="0" t="str">
+        <f aca="false">DEC2BIN(V45)</f>
+        <v>1011010</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="T46" s="0" t="str">
+        <f aca="false">B46 &amp; C46 &amp; D46 &amp; E46 &amp; F46 &amp; G46 &amp; H46 &amp; I46 &amp; J46</f>
+        <v>001100110</v>
+      </c>
+      <c r="U46" s="0" t="n">
+        <f aca="false">BIN2DEC(T46)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="T48" s="0" t="str">
+        <f aca="false">B48 &amp; C48 &amp; D48 &amp; E48 &amp; F48 &amp; G48 &amp; H48 &amp; I48 &amp; J48</f>
+        <v>101100110</v>
+      </c>
+      <c r="U48" s="0" t="n">
+        <f aca="false">BIN2DEC(T48)</f>
+        <v>358</v>
+      </c>
+      <c r="V48" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="W48" s="0" t="str">
+        <f aca="false">DEC2BIN(V48)</f>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="T49" s="0" t="str">
+        <f aca="false">B49 &amp; C49 &amp; D49 &amp; E49 &amp; F49 &amp; G49 &amp; H49 &amp; I49 &amp; J49</f>
+        <v>101101110</v>
+      </c>
+      <c r="U49" s="0" t="n">
+        <f aca="false">BIN2DEC(T49)</f>
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
